--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaloumi\IdeaProjects\CTS\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804A2FE6-50CA-4184-B360-6F7628BA0EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F893374F-444D-474C-B86D-2BC57BB7070C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5715" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{FCD53B44-A7AA-4B08-B811-AFAFF8B6DA88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{FCD53B44-A7AA-4B08-B811-AFAFF8B6DA88}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -689,7 +689,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -708,7 +708,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -722,6 +721,8 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -826,9 +827,23 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F9AD13E6-EFF1-4022-9A04-A9794F44FAC0}" name="Table1" displayName="Table1" ref="A1:B74" totalsRowShown="0" tableBorderDxfId="2">
-  <autoFilter ref="A1:B74" xr:uid="{F9AD13E6-EFF1-4022-9A04-A9794F44FAC0}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B73">
-    <sortCondition descending="1" ref="B1:B73"/>
+  <autoFilter ref="A1:B74" xr:uid="{F9AD13E6-EFF1-4022-9A04-A9794F44FAC0}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="APP-DA-10"/>
+        <filter val="APP-DA-11"/>
+        <filter val="APP-DA-12"/>
+        <filter val="APP-DA-13"/>
+        <filter val="APP-DA-5"/>
+        <filter val="APP-DA-6"/>
+        <filter val="APP-DA-7"/>
+        <filter val="APP-DA-8"/>
+        <filter val="APP-DA-9"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B74">
+    <sortCondition descending="1" ref="A1:A74"/>
   </sortState>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{86C6B499-C1BE-425B-8F35-9BBE73A8D49C}" name="Grupo" dataDxfId="1"/>
@@ -1157,8 +1172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD26C2D5-17E2-429A-908E-8B1429FD6AD9}">
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,303 +1190,303 @@
         <v>88</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" s="9">
+        <v>19.934799999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="9">
+        <v>16.596900000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="9">
+        <v>12.517200000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="9">
+        <v>9.55016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B7" s="9">
+        <v>6.3977000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" s="9">
+        <v>41.723999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="9">
+        <v>37.088000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B10" s="9">
+        <v>31.524799999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B11" s="7">
+        <v>23.829000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B12" s="9">
+        <v>20.305700000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="9">
+        <v>16.9678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="9">
+        <v>13.907999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="9">
+        <v>10.662800000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B16" s="9">
+        <v>6.3977000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="9">
+        <v>41.723999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B18" s="9">
+        <v>38.4788</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B19" s="9">
+        <v>30.5976</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="7">
+        <v>25.961600000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="9">
+        <v>21.325600000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B22" s="9">
+        <v>18.080400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="9">
+        <v>14.371600000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="9">
+        <v>9.9209999999999994</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B25" s="9">
+        <v>6.3977000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="9">
+        <v>44.042000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B27" s="9">
+        <v>39.405999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="9">
+        <v>31.061199999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="7">
+        <v>25.034400000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="17">
+        <v>25.498000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B31" s="9">
+        <v>20.861999999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B32" s="9">
+        <v>17.895</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B33" s="9">
+        <v>13.815300000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B34" s="9">
+        <v>10.199199999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B35" s="9">
         <v>50.996000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="9">
-        <v>46.36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="9">
-        <v>46.36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="9">
-        <v>46.36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="9">
+    <row r="36" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36" s="9">
         <v>44.042000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="9">
-        <v>44.042000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="9">
-        <v>42.651200000000003</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="9">
-        <v>41.723999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="9">
-        <v>41.723999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B11" s="7">
-        <v>39.869599999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B12" s="9">
-        <v>39.405999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="9">
-        <v>38.942399999999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B14" s="9">
-        <v>38.942399999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B15" s="9">
-        <v>38.4788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B16" s="9">
-        <v>38.0152</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
+    <row r="37" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B37" s="9">
         <v>37.551600000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="9">
-        <v>37.088000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="9">
-        <v>35.233600000000003</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="7">
+    <row r="38" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B38" s="7">
         <v>31.524799999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="9">
-        <v>31.524799999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="9">
-        <v>31.061199999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="9">
-        <v>30.5976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="9">
-        <v>30.5976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="9">
-        <v>29.670400000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="B26" s="9">
-        <v>29.670400000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B27" s="9">
-        <v>27.4451</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B28" s="9">
-        <v>25.961600000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B29" s="12">
-        <v>25.498000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="9">
-        <v>25.034400000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B31" s="9">
-        <v>25.034400000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="9">
-        <v>24.570799999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" s="9">
-        <v>24.2926</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B34" s="9">
-        <v>24.107199999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="9">
-        <v>23.829000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B36" s="9">
-        <v>21.325600000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B37" s="9">
-        <v>21.325600000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B38" s="7">
-        <v>20.861999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>125</v>
       </c>
@@ -1479,164 +1494,164 @@
         <v>20.769300000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>23</v>
+    <row r="40" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="B40" s="9">
-        <v>20.398399999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+        <v>17.153199999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="B41" s="9">
-        <v>20.305700000000002</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B42" s="9">
-        <v>19.934799999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+        <v>13.53712</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="8">
+        <v>9.3647200000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="9">
+        <v>6.3976800000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B44" s="9">
+        <v>42.651200000000003</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45" s="9">
+        <v>38.0152</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="9">
+        <v>27.4451</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B47" s="7">
+        <v>24.2926</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="9">
+        <v>24.107199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="9">
+      <c r="B49" s="9">
         <v>19.4712</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B44" s="9">
-        <v>18.544</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B45" s="9">
-        <v>18.080400000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B46" s="9">
-        <v>18.080400000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="7">
-        <v>17.895</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B48" s="9">
-        <v>17.153199999999998</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B49" s="9">
-        <v>16.9678</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>74</v>
+    <row r="50" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="B50" s="9">
-        <v>16.596900000000002</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>133</v>
+        <v>13.815300000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="B51" s="9">
-        <v>14.8352</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.199199999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="B52" s="9">
-        <v>14.371600000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>6.3977000000000004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="B53" s="9">
-        <v>14.093400000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>134</v>
+        <v>46.36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="B54" s="9">
-        <v>13.907999999999999</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>135</v>
+        <v>39.869599999999998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>109</v>
       </c>
       <c r="B55" s="9">
-        <v>13.815300000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>35.233600000000003</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="B56" s="7">
-        <v>13.815300000000001</v>
+        <v>29.670400000000001</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B57" s="9">
-        <v>13.53712</v>
+        <v>20.398399999999999</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>76</v>
+      <c r="A58" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B58" s="9">
-        <v>12.517200000000001</v>
+        <v>18.080400000000001</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>137</v>
+      <c r="A59" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B59" s="9">
-        <v>10.662800000000001</v>
+        <v>14.093400000000001</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,78 +1663,78 @@
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>138</v>
+      <c r="A61" s="1" t="s">
+        <v>142</v>
       </c>
       <c r="B61" s="9">
-        <v>10.199199999999999</v>
+        <v>6.3977000000000004</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>139</v>
+        <v>94</v>
       </c>
       <c r="B62" s="9">
-        <v>10.199199999999999</v>
+        <v>46.36</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>140</v>
+        <v>104</v>
       </c>
       <c r="B63" s="9">
-        <v>10.199199999999999</v>
+        <v>38.942399999999999</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>141</v>
+      <c r="A64" s="1" t="s">
+        <v>114</v>
       </c>
       <c r="B64" s="9">
-        <v>9.9209999999999994</v>
+        <v>29.670400000000001</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="B65" s="7">
-        <v>9.55016</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" s="8">
-        <v>9.3647200000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>142</v>
+        <v>24.570799999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="9">
+        <v>21.325600000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B67" s="9">
-        <v>6.3977000000000004</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+        <v>18.544</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B68" s="9">
-        <v>6.3977000000000004</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>144</v>
+        <v>14.8352</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B69" s="9">
-        <v>6.3977000000000004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+        <v>10.199199999999999</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>145</v>
       </c>
@@ -1727,36 +1742,36 @@
         <v>6.3977000000000004</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="B71" s="9">
-        <v>6.3977000000000004</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>147</v>
+        <v>46.36</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B72" s="9">
-        <v>6.3977000000000004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>38.942399999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
-        <v>20</v>
+        <v>113</v>
       </c>
       <c r="B73" s="11">
-        <v>6.3976800000000003</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="10" t="s">
-        <v>150</v>
+        <v>30.5976</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="B74" s="11">
-        <v>0</v>
+        <v>25.034400000000002</v>
       </c>
     </row>
   </sheetData>
@@ -1778,19 +1793,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="32.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>1</v>
       </c>
     </row>
@@ -2593,29 +2608,29 @@
       <c r="B74" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C74" s="12" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="16" t="s">
+      <c r="A75" s="15" t="s">
         <v>148</v>
       </c>
       <c r="B75" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C75" s="17" t="s">
+      <c r="C75" s="16" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+      <c r="A76" s="15" t="s">
         <v>149</v>
       </c>
       <c r="B76" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C76" s="17" t="s">
+      <c r="C76" s="16" t="s">
         <v>0</v>
       </c>
     </row>

--- a/src/main/resources/Data.xlsx
+++ b/src/main/resources/Data.xlsx
@@ -1,21 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\asaloumi\IdeaProjects\CTS\src\main\resources\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB68A23-D780-44D4-9DDE-CEEE2EAF8D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
-    <sheet r:id="rId2" sheetId="2" name="Sheet2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="old" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId4"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" iterate="1"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="237">
   <si>
     <t>Employee ID</t>
   </si>
@@ -474,14 +495,271 @@
   </si>
   <si>
     <t>Tools</t>
+  </si>
+  <si>
+    <t>Group ID</t>
+  </si>
+  <si>
+    <t>COGS EUR FY25</t>
+  </si>
+  <si>
+    <t>COGS EUR FY26</t>
+  </si>
+  <si>
+    <t>APP-DEV - 5</t>
+  </si>
+  <si>
+    <t>APP-DEV - 6</t>
+  </si>
+  <si>
+    <t>APP-DEV - 7</t>
+  </si>
+  <si>
+    <t>APP-DEV - 8</t>
+  </si>
+  <si>
+    <t>APP-DEV - 9</t>
+  </si>
+  <si>
+    <t>APP-DEV - 10</t>
+  </si>
+  <si>
+    <t>APP-DEV - 11</t>
+  </si>
+  <si>
+    <t>APP-DEV - 12</t>
+  </si>
+  <si>
+    <t>APP-DEV - 13</t>
+  </si>
+  <si>
+    <t>APP-DA - 5</t>
+  </si>
+  <si>
+    <t>APP-DA - 6</t>
+  </si>
+  <si>
+    <t>APP-DA - 7</t>
+  </si>
+  <si>
+    <t>APP-DA - 8</t>
+  </si>
+  <si>
+    <t>APP-DA - 9</t>
+  </si>
+  <si>
+    <t>APP-DA - 10</t>
+  </si>
+  <si>
+    <t>APP-DA - 11</t>
+  </si>
+  <si>
+    <t>APP-DA - 12</t>
+  </si>
+  <si>
+    <t>APP-DA - 13</t>
+  </si>
+  <si>
+    <t>APP-NSKL - 5</t>
+  </si>
+  <si>
+    <t>APP-NSKL - 6</t>
+  </si>
+  <si>
+    <t>APP-NSKL - 7</t>
+  </si>
+  <si>
+    <t>APP-NSKL - 8</t>
+  </si>
+  <si>
+    <t>APP-NSKL - 9</t>
+  </si>
+  <si>
+    <t>APP-NSKL - 10</t>
+  </si>
+  <si>
+    <t>APP-NSKL - 11</t>
+  </si>
+  <si>
+    <t>APP-NSKL - 12</t>
+  </si>
+  <si>
+    <t>APP-NSKL - 13</t>
+  </si>
+  <si>
+    <t>APP-TEST - 5</t>
+  </si>
+  <si>
+    <t>APP-TEST - 6</t>
+  </si>
+  <si>
+    <t>APP-TEST - 7</t>
+  </si>
+  <si>
+    <t>APP-TEST - 8</t>
+  </si>
+  <si>
+    <t>APP-TEST - 9</t>
+  </si>
+  <si>
+    <t>APP-TEST - 10</t>
+  </si>
+  <si>
+    <t>APP-TEST - 11</t>
+  </si>
+  <si>
+    <t>APP-TEST - 12</t>
+  </si>
+  <si>
+    <t>APP-TEST - 13</t>
+  </si>
+  <si>
+    <t>APP-BI - 5</t>
+  </si>
+  <si>
+    <t>APP-BI - 6</t>
+  </si>
+  <si>
+    <t>APP-BI - 7</t>
+  </si>
+  <si>
+    <t>APP-BI - 8</t>
+  </si>
+  <si>
+    <t>APP-BI - 9</t>
+  </si>
+  <si>
+    <t>APP-BI - 10</t>
+  </si>
+  <si>
+    <t>APP-BI - 11</t>
+  </si>
+  <si>
+    <t>APP-BI - 12</t>
+  </si>
+  <si>
+    <t>APP-BI - 13</t>
+  </si>
+  <si>
+    <t>APP-ERP - 5</t>
+  </si>
+  <si>
+    <t>APP-ERP - 6</t>
+  </si>
+  <si>
+    <t>APP-ERP - 7</t>
+  </si>
+  <si>
+    <t>APP-ERP - 8</t>
+  </si>
+  <si>
+    <t>APP-ERP - 9</t>
+  </si>
+  <si>
+    <t>APP-ERP - 10</t>
+  </si>
+  <si>
+    <t>APP-ERP - 11</t>
+  </si>
+  <si>
+    <t>APP-ERP - 12</t>
+  </si>
+  <si>
+    <t>APP-ERP - 13</t>
+  </si>
+  <si>
+    <t>APP-PM - 5</t>
+  </si>
+  <si>
+    <t>APP-PM - 6</t>
+  </si>
+  <si>
+    <t>APP-PM - 7</t>
+  </si>
+  <si>
+    <t>APP-PM - 8</t>
+  </si>
+  <si>
+    <t>APP-PM - 9</t>
+  </si>
+  <si>
+    <t>APP-PM - 10</t>
+  </si>
+  <si>
+    <t>APP-PM - 11</t>
+  </si>
+  <si>
+    <t>APP-PM - 12</t>
+  </si>
+  <si>
+    <t>APP-PM - 13</t>
+  </si>
+  <si>
+    <t>APP-DCBA - 5</t>
+  </si>
+  <si>
+    <t>APP-DCBA - 6</t>
+  </si>
+  <si>
+    <t>APP-DCBA - 7</t>
+  </si>
+  <si>
+    <t>APP-DCBA - 8</t>
+  </si>
+  <si>
+    <t>APP-DCBA - 9</t>
+  </si>
+  <si>
+    <t>APP-DCBA - 10</t>
+  </si>
+  <si>
+    <t>APP-DCBA - 11</t>
+  </si>
+  <si>
+    <t>APP-DCBA - 12</t>
+  </si>
+  <si>
+    <t>APP-DCBA - 13</t>
+  </si>
+  <si>
+    <t>APP-HSKL - 5</t>
+  </si>
+  <si>
+    <t>APP-HSKL - 6</t>
+  </si>
+  <si>
+    <t>APP-HSKL - 7</t>
+  </si>
+  <si>
+    <t>APP-HSKL - 8</t>
+  </si>
+  <si>
+    <t>APP-HSKL - 9</t>
+  </si>
+  <si>
+    <t>APP-HSKL - 10</t>
+  </si>
+  <si>
+    <t>APP-HSKL - 11</t>
+  </si>
+  <si>
+    <t>APP-HSKL - 12</t>
+  </si>
+  <si>
+    <t>APP-HSKL - 13</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
+    <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -491,7 +769,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
@@ -503,7 +781,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFffffff"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -520,8 +798,31 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -535,31 +836,45 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFff8080"/>
+        <fgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFf2f2f2"/>
+        <fgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00b0f0"/>
+        <fgColor rgb="FF00B0F0"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFffc000"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF47d359"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -569,16 +884,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -605,10 +920,10 @@
         <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </bottom>
       <diagonal/>
     </border>
@@ -621,10 +936,10 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color rgb="FFC6C6C6"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -636,183 +951,396 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color rgb="FFc6c6c6"/>
-      </right>
+      <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color rgb="FFc6c6c6"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color rgb="FFc6c6c6"/>
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFc6c6c6"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+  <cellXfs count="38">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="5" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="6" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="7" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="8" applyBorder="1" fontId="4" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="9" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="8" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="9" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="14" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+  <cellStyles count="2">
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="165" formatCode="0.000000"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="167" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:B76" displayName="Table1" name="Table1" id="1" totalsRowShown="0">
-  <autoFilter ref="A1:B76"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{2405D3CA-5CA2-42A9-AADC-788F3F6C68B2}" name="Table2" displayName="Table2" ref="A1:C85" totalsRowShown="0" headerRowBorderDxfId="6" tableBorderDxfId="7" totalsRowBorderDxfId="5">
+  <autoFilter ref="A1:C85" xr:uid="{2405D3CA-5CA2-42A9-AADC-788F3F6C68B2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C82">
+    <sortCondition ref="A1:A82"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{88D8AAFE-3C6E-429B-87EF-6FDF721B9DA8}" name="Group ID" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{AB0996B9-9C6C-43B9-AC5F-0EB7370B76B2}" name="COGS EUR FY25" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{520ADC92-831D-4FBC-BDC0-CA86A9E7FB38}" name="COGS EUR FY26" dataDxfId="3" dataCellStyle="Comma"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:B76" totalsRowShown="0">
+  <autoFilter ref="A1:B76" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B76">
+    <sortCondition ref="A1:A76"/>
+  </sortState>
   <tableColumns count="2">
-    <tableColumn name="Grupo" id="1"/>
-    <tableColumn name="Grupo2" id="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Grupo" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Grupo2" dataDxfId="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showColumnStripes="0" showRowStripes="1" showLastColumn="0" showFirstColumn="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -821,10 +1349,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="0E2841"/>
@@ -862,71 +1390,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -954,7 +1482,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -977,11 +1505,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -990,13 +1518,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1006,7 +1534,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -1015,7 +1543,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1024,7 +1552,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -1032,10 +1560,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -1100,626 +1628,936 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:C85"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="25" width="12.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="26" width="15.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B2" s="16">
-        <v>50.996</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="17">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="B2" s="35">
+        <v>25.034400000000002</v>
+      </c>
+      <c r="C2" s="26">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="36">
+        <v>30.5976</v>
+      </c>
+      <c r="C3" s="25">
+        <v>31.67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="35">
+        <v>38.942399999999999</v>
+      </c>
+      <c r="C4" s="26">
+        <v>40.31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="B5" s="36">
         <v>46.36</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B4" s="17">
+      <c r="C5" s="25">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>192</v>
+      </c>
+      <c r="B6" s="36">
+        <v>6.3977000000000004</v>
+      </c>
+      <c r="C6" s="25">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="35">
+        <v>10.199199999999999</v>
+      </c>
+      <c r="C7" s="26">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="36">
+        <v>14.8352</v>
+      </c>
+      <c r="C8" s="25">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="35">
+        <v>18.544</v>
+      </c>
+      <c r="C9" s="26">
+        <v>19.190000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="36">
+        <v>21.325600000000001</v>
+      </c>
+      <c r="C10" s="25">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="35">
+        <v>24.570799999999998</v>
+      </c>
+      <c r="C11" s="26">
+        <v>25.43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="36">
+        <v>29.670400000000001</v>
+      </c>
+      <c r="C12" s="25">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="35">
+        <v>38.942399999999999</v>
+      </c>
+      <c r="C13" s="26">
+        <v>40.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="36">
         <v>46.36</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="17">
+      <c r="C14" s="25">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B15" s="36">
+        <v>6.3977000000000004</v>
+      </c>
+      <c r="C15" s="25">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B16" s="35">
+        <v>10.199199999999999</v>
+      </c>
+      <c r="C16" s="26">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B17" s="36">
+        <v>14.093439999999999</v>
+      </c>
+      <c r="C17" s="25">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B18" s="35">
+        <v>18.080400000000001</v>
+      </c>
+      <c r="C18" s="26">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B19" s="36">
+        <v>20.398399999999999</v>
+      </c>
+      <c r="C19" s="25">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B20" s="35">
+        <v>29.670400000000001</v>
+      </c>
+      <c r="C20" s="26">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>225</v>
+      </c>
+      <c r="B21" s="36">
+        <v>35.233600000000003</v>
+      </c>
+      <c r="C21" s="25">
+        <v>36.47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="B22" s="35">
+        <v>39.869599999999998</v>
+      </c>
+      <c r="C22" s="26">
+        <v>41.27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="36">
         <v>46.36</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="17">
-        <v>44.042</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B7" s="17">
-        <v>44.042</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="17">
-        <v>42.6512</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B9" s="17">
-        <v>41.724</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="17">
-        <v>41.724</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="16">
-        <v>39.8696</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B12" s="17">
-        <v>39.406</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="17">
-        <v>38.9424</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="17">
-        <v>38.9424</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B15" s="17">
+      <c r="C23" s="25">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24" s="36">
+        <v>6.3977000000000004</v>
+      </c>
+      <c r="C24" s="25">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="B25" s="35">
+        <v>10.199199999999999</v>
+      </c>
+      <c r="C25" s="26">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>221</v>
+      </c>
+      <c r="B26" s="36">
+        <v>13.815300000000001</v>
+      </c>
+      <c r="C26" s="25">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27" s="35">
+        <v>19.4712</v>
+      </c>
+      <c r="C27" s="26">
+        <v>20.149999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>223</v>
+      </c>
+      <c r="B28" s="36">
+        <v>24.107199999999999</v>
+      </c>
+      <c r="C28" s="25">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>161</v>
+      </c>
+      <c r="B29" s="35">
+        <v>24.2926</v>
+      </c>
+      <c r="C29" s="26">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B30" s="36">
+        <v>27.4451</v>
+      </c>
+      <c r="C30" s="25">
+        <v>28.41</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="B31" s="35">
+        <v>38.0152</v>
+      </c>
+      <c r="C31" s="26">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="36">
+        <v>42.651200000000003</v>
+      </c>
+      <c r="C32" s="25">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B33" s="36">
+        <v>6.3976800000000003</v>
+      </c>
+      <c r="C33" s="25">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="35">
+        <v>9.3647200000000002</v>
+      </c>
+      <c r="C34" s="26">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="36">
+        <v>13.53712</v>
+      </c>
+      <c r="C35" s="25">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>159</v>
+      </c>
+      <c r="B36" s="35">
+        <v>17.153199999999998</v>
+      </c>
+      <c r="C36" s="26">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="36">
+        <v>20.769300000000001</v>
+      </c>
+      <c r="C37" s="25">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>206</v>
+      </c>
+      <c r="B38" s="35">
+        <v>31.524799999999999</v>
+      </c>
+      <c r="C38" s="26">
+        <v>38.86</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B39" s="36">
+        <v>37.551600000000001</v>
+      </c>
+      <c r="C39" s="25">
+        <v>45.58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="B40" s="35">
+        <v>44.042000000000002</v>
+      </c>
+      <c r="C40" s="26">
+        <v>52.79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="B41" s="36">
+        <v>50.996000000000002</v>
+      </c>
+      <c r="C41" s="25">
+        <v>57.96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B42" s="36">
+        <v>10.199199999999999</v>
+      </c>
+      <c r="C42" s="25">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B43" s="35">
+        <v>13.815300000000001</v>
+      </c>
+      <c r="C43" s="26">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>203</v>
+      </c>
+      <c r="B44" s="36">
+        <v>17.895</v>
+      </c>
+      <c r="C44" s="25">
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="35">
+        <v>20.861999999999998</v>
+      </c>
+      <c r="C45" s="26">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>205</v>
+      </c>
+      <c r="B46" s="36">
+        <v>25.498000000000001</v>
+      </c>
+      <c r="C46" s="25">
+        <v>32.619999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>233</v>
+      </c>
+      <c r="B47" s="35"/>
+      <c r="C47" s="32">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B48" s="36"/>
+      <c r="C48" s="31">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="B49" s="35"/>
+      <c r="C49" s="32">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="B50" s="36"/>
+      <c r="C50" s="31">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>228</v>
+      </c>
+      <c r="B51" s="36"/>
+      <c r="C51" s="31">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B52" s="35"/>
+      <c r="C52" s="32">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>230</v>
+      </c>
+      <c r="B53" s="36"/>
+      <c r="C53" s="31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>231</v>
+      </c>
+      <c r="B54" s="35"/>
+      <c r="C54" s="32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>232</v>
+      </c>
+      <c r="B55" s="36"/>
+      <c r="C55" s="31">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>179</v>
+      </c>
+      <c r="B56" s="35">
+        <v>25.034400000000002</v>
+      </c>
+      <c r="C56" s="26">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B57" s="36">
+        <v>31.061199999999999</v>
+      </c>
+      <c r="C57" s="25">
+        <v>32.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B58" s="35">
+        <v>39.405999999999999</v>
+      </c>
+      <c r="C58" s="26">
+        <v>40.79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>182</v>
+      </c>
+      <c r="B59" s="36">
+        <v>44.042000000000002</v>
+      </c>
+      <c r="C59" s="25">
+        <v>45.58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B60" s="36">
+        <v>6.3977000000000004</v>
+      </c>
+      <c r="C60" s="25">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B61" s="35">
+        <v>9.9209999999999994</v>
+      </c>
+      <c r="C61" s="26">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B62" s="36">
+        <v>14.371600000000001</v>
+      </c>
+      <c r="C62" s="25">
+        <v>14.87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B63" s="35">
+        <v>18.080400000000001</v>
+      </c>
+      <c r="C63" s="26">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="B64" s="36">
+        <v>21.325600000000001</v>
+      </c>
+      <c r="C64" s="25">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>215</v>
+      </c>
+      <c r="B65" s="35">
+        <v>25.961600000000001</v>
+      </c>
+      <c r="C65" s="26">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B66" s="36">
+        <v>30.5976</v>
+      </c>
+      <c r="C66" s="25">
+        <v>31.67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="35">
         <v>38.4788</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B16" s="17">
-        <v>38.0152</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="17">
-        <v>37.5516</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="18" t="s">
-        <v>110</v>
-      </c>
-      <c r="B18" s="17">
-        <v>37.088</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="B19" s="17">
-        <v>35.2336</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="B20" s="16">
-        <v>31.5248</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="17">
-        <v>31.5248</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B22" s="17">
-        <v>31.0612</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="17">
-        <v>30.5976</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="B24" s="17">
-        <v>30.5976</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B25" s="17">
-        <v>29.6704</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="17">
-        <v>29.6704</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="15" t="s">
-        <v>118</v>
-      </c>
-      <c r="B27" s="17">
-        <v>27.4451</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="17">
-        <v>25.9616</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="B29" s="19">
-        <v>25.498</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="B30" s="17">
-        <v>25.0344</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="17">
-        <v>25.0344</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B32" s="17">
-        <v>24.5708</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="B33" s="17">
-        <v>24.2926</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="15" t="s">
-        <v>123</v>
-      </c>
-      <c r="B34" s="17">
-        <v>24.1072</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B35" s="17">
-        <v>23.829</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B36" s="17">
-        <v>21.3256</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="15" t="s">
-        <v>125</v>
-      </c>
-      <c r="B37" s="17">
-        <v>21.3256</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B38" s="16">
-        <v>20.862</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="B39" s="17">
-        <v>20.7693</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B40" s="17">
-        <v>20.3984</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41" s="17">
-        <v>20.3057</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
-      <c r="A42" s="15" t="s">
-        <v>129</v>
-      </c>
-      <c r="B42" s="17">
-        <v>19.9348</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
-      <c r="A43" s="18" t="s">
-        <v>130</v>
-      </c>
-      <c r="B43" s="17">
-        <v>19.4712</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
-      <c r="A44" s="18" t="s">
-        <v>131</v>
-      </c>
-      <c r="B44" s="17">
-        <v>18.544</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
-      <c r="A45" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="B45" s="17">
-        <v>18.0804</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
-      <c r="A46" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="B46" s="17">
-        <v>18.0804</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
-      <c r="A47" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="B47" s="16">
-        <v>17.895</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
-      <c r="A48" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="B48" s="17">
-        <v>17.1532</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
-      <c r="A49" s="18" t="s">
-        <v>134</v>
-      </c>
-      <c r="B49" s="17">
+      <c r="C67" s="26">
+        <v>39.83</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="B68" s="36">
+        <v>41.723999999999997</v>
+      </c>
+      <c r="C68" s="25">
+        <v>43.18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>210</v>
+      </c>
+      <c r="B69" s="36">
+        <v>6.3977000000000004</v>
+      </c>
+      <c r="C69" s="25">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="B70" s="35">
+        <v>10.662800000000001</v>
+      </c>
+      <c r="C70" s="26">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="B71" s="36">
+        <v>13.907999999999999</v>
+      </c>
+      <c r="C71" s="25">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="B72" s="35">
         <v>16.9678</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
-      <c r="A50" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B50" s="17">
-        <v>16.5969</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
-      <c r="A51" s="15" t="s">
-        <v>135</v>
-      </c>
-      <c r="B51" s="17">
-        <v>14.8352</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
-      <c r="A52" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="17">
-        <v>14.3716</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
-      <c r="A53" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B53" s="17">
-        <v>14.0934</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
-      <c r="A54" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="17">
-        <v>13.908</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
-      <c r="A55" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="17">
-        <v>13.8153</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
-      <c r="A56" s="15" t="s">
-        <v>138</v>
-      </c>
-      <c r="B56" s="16">
-        <v>13.8153</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
-      <c r="A57" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B57" s="17">
-        <v>13.53712</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
-      <c r="A58" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="B58" s="17">
-        <v>12.5172</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
-      <c r="A59" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B59" s="17">
-        <v>10.6628</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
-      <c r="A60" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="17">
-        <v>10.1992</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
-      <c r="A61" s="18" t="s">
-        <v>140</v>
-      </c>
-      <c r="B61" s="17">
-        <v>10.1992</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
-      <c r="A62" s="15" t="s">
-        <v>141</v>
-      </c>
-      <c r="B62" s="17">
-        <v>10.1992</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
-      <c r="A63" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="B63" s="17">
-        <v>10.1992</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
-      <c r="A64" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B64" s="17">
-        <v>9.921</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="19.5">
-      <c r="A65" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="B65" s="16">
+      <c r="C72" s="26">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="B73" s="36">
+        <v>20.305700000000002</v>
+      </c>
+      <c r="C73" s="25">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="B74" s="35">
+        <v>23.829000000000001</v>
+      </c>
+      <c r="C74" s="26">
+        <v>24.66</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="B75" s="36">
+        <v>31.524799999999999</v>
+      </c>
+      <c r="C75" s="25">
+        <v>32.630000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="B76" s="35">
+        <v>37.088000000000001</v>
+      </c>
+      <c r="C76" s="26">
+        <v>38.39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="23" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="36">
+        <v>41.723999999999997</v>
+      </c>
+      <c r="C77" s="25">
+        <v>43.18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="B78" s="36">
+        <v>6.3977000000000004</v>
+      </c>
+      <c r="C78" s="25">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="24" t="s">
+        <v>184</v>
+      </c>
+      <c r="B79" s="35">
         <v>9.55016</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
-      <c r="A66" s="18" t="s">
+      <c r="C79" s="26">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="36">
+        <v>12.517200000000001</v>
+      </c>
+      <c r="C80" s="25">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
+        <v>186</v>
+      </c>
+      <c r="B81" s="35">
+        <v>16.596900000000002</v>
+      </c>
+      <c r="C81" s="26">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B82" s="36">
+        <v>19.934799999999999</v>
+      </c>
+      <c r="C82" s="30">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="B83" s="36">
         <v>25</v>
       </c>
-      <c r="B66" s="20">
-        <v>9.36472</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
-      <c r="A67" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="B67" s="17">
-        <v>6.3977</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
-      <c r="A68" s="15" t="s">
-        <v>145</v>
-      </c>
-      <c r="B68" s="17">
-        <v>6.3977</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
-      <c r="A69" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="B69" s="17">
-        <v>6.3977</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
-      <c r="A70" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B70" s="17">
-        <v>6.3977</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
-      <c r="A71" s="15" t="s">
-        <v>148</v>
-      </c>
-      <c r="B71" s="17">
-        <v>6.3977</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
-      <c r="A72" s="15" t="s">
-        <v>149</v>
-      </c>
-      <c r="B72" s="17">
-        <v>6.3977</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
-      <c r="A73" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B73" s="22">
-        <v>6.39768</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
-      <c r="A74" s="21" t="s">
+      <c r="C83" s="18">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B74" s="23">
-        <v>48.76344</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
-      <c r="A75" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="B75" s="23">
-        <v>24.38172</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
-      <c r="A76" s="15" t="s">
+      <c r="B84" s="36">
+        <v>50</v>
+      </c>
+      <c r="C84" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="29" t="s">
         <v>152</v>
       </c>
-      <c r="B76" s="24">
-        <v>0</v>
+      <c r="B85" s="37">
+        <v>1</v>
+      </c>
+      <c r="C85" s="33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1731,7 +2569,1563 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36A9D3E7-6BB5-46F3-B342-A94383C571EA}">
+  <dimension ref="A1:B82"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:B76"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="20">
+        <v>25.034400000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" s="18">
+        <v>30.5976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4" s="20">
+        <v>38.942399999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="18">
+        <v>46.36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B6" s="18">
+        <v>6.3977000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="20">
+        <v>10.199199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B8" s="18">
+        <v>14.8352</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" s="20">
+        <v>18.544</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="18">
+        <v>21.325600000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="20">
+        <v>24.570799999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="23" t="s">
+        <v>116</v>
+      </c>
+      <c r="B12" s="18">
+        <v>29.670400000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B13" s="20">
+        <v>38.942399999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="18">
+        <v>46.36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B15" s="18">
+        <v>6.3977000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="20">
+        <v>10.199199999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="18">
+        <v>14.093439999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="20">
+        <v>18.080400000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="18">
+        <v>20.398399999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B20" s="20">
+        <v>29.670400000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="18">
+        <v>35.233600000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="20">
+        <v>39.869599999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="B23" s="18">
+        <v>46.36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="B24" s="18">
+        <v>6.3977000000000004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="20">
+        <v>10.199199999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B26" s="18">
+        <v>13.815300000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B27" s="20">
+        <v>19.4712</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B28" s="18">
+        <v>24.107199999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="20">
+        <v>24.2926</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="18">
+        <v>27.4451</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="20">
+        <v>38.0152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="18">
+        <v>42.651200000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33" s="18">
+        <v>6.3976800000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="20">
+        <v>9.3647200000000002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="18">
+        <v>13.53712</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B36" s="20">
+        <v>17.153199999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="B37" s="18">
+        <v>20.769300000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="B38" s="20">
+        <v>31.524799999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B39" s="18">
+        <v>37.551600000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B40" s="20">
+        <v>44.042000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" s="18">
+        <v>50.996000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="23" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="18">
+        <v>10.199199999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="20">
+        <v>13.815300000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="18">
+        <v>17.895</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="B45" s="20">
+        <v>20.861999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B46" s="18">
+        <v>25.498000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="20">
+        <v>25.034400000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" s="18">
+        <v>31.061199999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B49" s="20">
+        <v>39.405999999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="18">
+        <v>44.042000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="B51" s="18">
+        <v>6.3977000000000004</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B52" s="20">
+        <v>9.9209999999999994</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B53" s="18">
+        <v>14.371600000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B54" s="20">
+        <v>18.080400000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B55" s="18">
+        <v>21.325600000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="24" t="s">
+        <v>119</v>
+      </c>
+      <c r="B56" s="20">
+        <v>25.961600000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="B57" s="18">
+        <v>30.5976</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="B58" s="20">
+        <v>38.4788</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="23" t="s">
+        <v>103</v>
+      </c>
+      <c r="B59" s="18">
+        <v>41.723999999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="B60" s="18">
+        <v>6.3977000000000004</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="B61" s="20">
+        <v>10.662800000000001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="B62" s="18">
+        <v>13.907999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="20">
+        <v>16.9678</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="18">
+        <v>20.305700000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B65" s="20">
+        <v>23.829000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="18">
+        <v>31.524799999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="B67" s="20">
+        <v>37.088000000000001</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="18">
+        <v>41.723999999999997</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B69" s="18">
+        <v>6.3977000000000004</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B70" s="20">
+        <v>9.55016</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" s="18">
+        <v>12.517200000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="B72" s="20">
+        <v>16.596900000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B73" s="18">
+        <v>19.934799999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B74" s="20">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="23"/>
+      <c r="B77" s="18"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="23"/>
+      <c r="B78" s="18"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="20"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="23"/>
+      <c r="B80" s="18"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="20"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="29"/>
+      <c r="B82" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A64A61-EBCD-41F8-A834-490E4BA444BC}">
+  <dimension ref="A1:C82"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="C2" s="18">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="20">
+        <v>9.36</v>
+      </c>
+      <c r="C3" s="20">
+        <v>9.69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>158</v>
+      </c>
+      <c r="B4" s="18">
+        <v>13.54</v>
+      </c>
+      <c r="C4" s="18">
+        <v>14.01</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" s="20">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="C5" s="20">
+        <v>17.75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="18">
+        <v>20.77</v>
+      </c>
+      <c r="C6" s="18">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="B7" s="20">
+        <v>24.29</v>
+      </c>
+      <c r="C7" s="20">
+        <v>25.14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="18">
+        <v>27.45</v>
+      </c>
+      <c r="C8" s="18">
+        <v>28.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="20">
+        <v>38.020000000000003</v>
+      </c>
+      <c r="C9" s="20">
+        <v>39.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>164</v>
+      </c>
+      <c r="B10" s="18">
+        <v>42.65</v>
+      </c>
+      <c r="C10" s="18">
+        <v>44.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="B11" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="C11" s="18">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>166</v>
+      </c>
+      <c r="B12" s="20">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C12" s="20">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="18">
+        <v>14.09</v>
+      </c>
+      <c r="C13" s="18">
+        <v>14.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="B14" s="20">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="C14" s="20">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="18">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="C15" s="18">
+        <v>21.11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>170</v>
+      </c>
+      <c r="B16" s="20">
+        <v>24.57</v>
+      </c>
+      <c r="C16" s="20">
+        <v>25.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="B17" s="18">
+        <v>29.67</v>
+      </c>
+      <c r="C17" s="18">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
+        <v>172</v>
+      </c>
+      <c r="B18" s="20">
+        <v>38.94</v>
+      </c>
+      <c r="C18" s="20">
+        <v>40.31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="B19" s="18">
+        <v>46.36</v>
+      </c>
+      <c r="C19" s="18">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="C20" s="18">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>175</v>
+      </c>
+      <c r="B21" s="20">
+        <v>9.92</v>
+      </c>
+      <c r="C21" s="20">
+        <v>10.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="B22" s="18">
+        <v>14.37</v>
+      </c>
+      <c r="C22" s="18">
+        <v>14.87</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
+        <v>177</v>
+      </c>
+      <c r="B23" s="20">
+        <v>18.079999999999998</v>
+      </c>
+      <c r="C23" s="20">
+        <v>18.71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>178</v>
+      </c>
+      <c r="B24" s="18">
+        <v>21.33</v>
+      </c>
+      <c r="C24" s="18">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="B25" s="20">
+        <v>25.03</v>
+      </c>
+      <c r="C25" s="20">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B26" s="18">
+        <v>31.06</v>
+      </c>
+      <c r="C26" s="18">
+        <v>32.15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="B27" s="20">
+        <v>39.409999999999997</v>
+      </c>
+      <c r="C27" s="20">
+        <v>40.79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="B28" s="18">
+        <v>44.04</v>
+      </c>
+      <c r="C28" s="18">
+        <v>45.58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="B29" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="C29" s="18">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B30" s="20">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="C30" s="20">
+        <v>9.8800000000000008</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="B31" s="18">
+        <v>12.52</v>
+      </c>
+      <c r="C31" s="18">
+        <v>12.96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="B32" s="20">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="C32" s="20">
+        <v>17.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B33" s="18">
+        <v>19.93</v>
+      </c>
+      <c r="C33" s="18">
+        <v>20.63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="B34" s="20">
+        <v>23.83</v>
+      </c>
+      <c r="C34" s="20">
+        <v>24.66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="B35" s="18">
+        <v>31.52</v>
+      </c>
+      <c r="C35" s="18">
+        <v>32.630000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B36" s="20">
+        <v>37.090000000000003</v>
+      </c>
+      <c r="C36" s="20">
+        <v>38.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="B37" s="18">
+        <v>41.72</v>
+      </c>
+      <c r="C37" s="18">
+        <v>43.18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="C38" s="18">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="20">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C39" s="20">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="17" t="s">
+        <v>194</v>
+      </c>
+      <c r="B40" s="18">
+        <v>14.84</v>
+      </c>
+      <c r="C40" s="18">
+        <v>15.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="20">
+        <v>18.54</v>
+      </c>
+      <c r="C41" s="20">
+        <v>19.190000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="18">
+        <v>21.33</v>
+      </c>
+      <c r="C42" s="18">
+        <v>22.07</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="20">
+        <v>25.03</v>
+      </c>
+      <c r="C43" s="20">
+        <v>25.91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="18">
+        <v>30.6</v>
+      </c>
+      <c r="C44" s="18">
+        <v>31.67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="20">
+        <v>38.94</v>
+      </c>
+      <c r="C45" s="20">
+        <v>40.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="18">
+        <v>46.36</v>
+      </c>
+      <c r="C46" s="18">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B47" s="18">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C47" s="18">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="19" t="s">
+        <v>202</v>
+      </c>
+      <c r="B48" s="20">
+        <v>13.82</v>
+      </c>
+      <c r="C48" s="20">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="B49" s="18">
+        <v>20.86</v>
+      </c>
+      <c r="C49" s="18">
+        <v>21.59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B50" s="20">
+        <v>25.5</v>
+      </c>
+      <c r="C50" s="20">
+        <v>26.39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B51" s="18">
+        <v>31.52</v>
+      </c>
+      <c r="C51" s="18">
+        <v>32.619999999999997</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B52" s="20">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="C52" s="20">
+        <v>38.86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="B53" s="18">
+        <v>44.04</v>
+      </c>
+      <c r="C53" s="18">
+        <v>45.58</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B54" s="20">
+        <v>51</v>
+      </c>
+      <c r="C54" s="20">
+        <v>52.79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="B55" s="18">
+        <v>56</v>
+      </c>
+      <c r="C55" s="18">
+        <v>57.96</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="C56" s="18">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>211</v>
+      </c>
+      <c r="B57" s="20">
+        <v>10.66</v>
+      </c>
+      <c r="C57" s="20">
+        <v>11.04</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
+        <v>212</v>
+      </c>
+      <c r="B58" s="18">
+        <v>13.91</v>
+      </c>
+      <c r="C58" s="18">
+        <v>14.39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>213</v>
+      </c>
+      <c r="B59" s="20">
+        <v>16.97</v>
+      </c>
+      <c r="C59" s="20">
+        <v>17.559999999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" s="18">
+        <v>20.309999999999999</v>
+      </c>
+      <c r="C60" s="18">
+        <v>21.02</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B61" s="20">
+        <v>25.96</v>
+      </c>
+      <c r="C61" s="20">
+        <v>26.87</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>216</v>
+      </c>
+      <c r="B62" s="18">
+        <v>30.6</v>
+      </c>
+      <c r="C62" s="18">
+        <v>31.67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="B63" s="20">
+        <v>38.479999999999997</v>
+      </c>
+      <c r="C63" s="20">
+        <v>39.83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="17" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" s="18">
+        <v>41.72</v>
+      </c>
+      <c r="C64" s="18">
+        <v>43.18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="B65" s="18">
+        <v>6.4</v>
+      </c>
+      <c r="C65" s="18">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>220</v>
+      </c>
+      <c r="B66" s="20">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="C66" s="20">
+        <v>10.56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="B67" s="18">
+        <v>13.82</v>
+      </c>
+      <c r="C67" s="18">
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B68" s="20">
+        <v>19.47</v>
+      </c>
+      <c r="C68" s="20">
+        <v>20.149999999999999</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="B69" s="18">
+        <v>24.11</v>
+      </c>
+      <c r="C69" s="18">
+        <v>24.95</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>224</v>
+      </c>
+      <c r="B70" s="20">
+        <v>29.67</v>
+      </c>
+      <c r="C70" s="20">
+        <v>30.71</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" s="18">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="C71" s="18">
+        <v>36.47</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" s="20">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="C72" s="20">
+        <v>41.27</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="B73" s="18">
+        <v>46.36</v>
+      </c>
+      <c r="C73" s="18">
+        <v>47.98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>228</v>
+      </c>
+      <c r="B74" s="18"/>
+      <c r="C74" s="21">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B75" s="20"/>
+      <c r="C75" s="22">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>230</v>
+      </c>
+      <c r="B76" s="18"/>
+      <c r="C76" s="21">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="B77" s="20"/>
+      <c r="C77" s="22">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>232</v>
+      </c>
+      <c r="B78" s="18"/>
+      <c r="C78" s="21">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="B79" s="20"/>
+      <c r="C79" s="22">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="B80" s="18"/>
+      <c r="C80" s="21">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="19" t="s">
+        <v>235</v>
+      </c>
+      <c r="B81" s="20"/>
+      <c r="C81" s="22">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="B82" s="18"/>
+      <c r="C82" s="21">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
@@ -1741,12 +4135,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="11.719285714285713" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="11" width="32.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="12" width="22.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="11.7109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1757,7 +4151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>213407</v>
       </c>
@@ -1768,7 +4162,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>222205</v>
       </c>
@@ -1779,7 +4173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>232362</v>
       </c>
@@ -1790,7 +4184,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>193507</v>
       </c>
@@ -1801,7 +4195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>223691</v>
       </c>
@@ -1812,7 +4206,7 @@
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>234127</v>
       </c>
@@ -1823,7 +4217,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>218008</v>
       </c>
@@ -1834,7 +4228,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4">
         <v>238916</v>
       </c>
@@ -1845,7 +4239,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
         <v>238422</v>
       </c>
@@ -1856,7 +4250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>193507</v>
       </c>
@@ -1867,7 +4261,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>258310</v>
       </c>
@@ -1878,7 +4272,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>256435</v>
       </c>
@@ -1889,7 +4283,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>257631</v>
       </c>
@@ -1900,7 +4294,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>256455</v>
       </c>
@@ -1911,7 +4305,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4">
         <v>244747</v>
       </c>
@@ -1922,7 +4316,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row r="17" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>256438</v>
       </c>
@@ -1933,7 +4327,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row r="18" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>201782</v>
       </c>
@@ -1944,7 +4338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row r="19" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>208094</v>
       </c>
@@ -1955,7 +4349,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row r="20" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>229412</v>
       </c>
@@ -1966,7 +4360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row r="21" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>212031</v>
       </c>
@@ -1977,7 +4371,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+    <row r="22" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>207349</v>
       </c>
@@ -1988,7 +4382,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
+    <row r="23" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4">
         <v>261099</v>
       </c>
@@ -1999,7 +4393,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
+    <row r="24" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>229471</v>
       </c>
@@ -2010,7 +4404,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
+    <row r="25" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>219022</v>
       </c>
@@ -2021,7 +4415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
+    <row r="26" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4">
         <v>270203</v>
       </c>
@@ -2032,7 +4426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
+    <row r="27" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>229406</v>
       </c>
@@ -2043,7 +4437,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
+    <row r="28" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>238374</v>
       </c>
@@ -2054,7 +4448,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
+    <row r="29" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>256454</v>
       </c>
@@ -2065,7 +4459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
+    <row r="30" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>275136</v>
       </c>
@@ -2076,7 +4470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
+    <row r="31" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4">
         <v>156580</v>
       </c>
@@ -2087,7 +4481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
+    <row r="32" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>229403</v>
       </c>
@@ -2098,7 +4492,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
+    <row r="33" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>276878</v>
       </c>
@@ -2109,7 +4503,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
+    <row r="34" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>286026</v>
       </c>
@@ -2120,7 +4514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
+    <row r="35" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>162617</v>
       </c>
@@ -2131,7 +4525,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
+    <row r="36" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>283959</v>
       </c>
@@ -2142,7 +4536,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
+    <row r="37" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>279163</v>
       </c>
@@ -2153,7 +4547,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
+    <row r="38" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>238502</v>
       </c>
@@ -2164,7 +4558,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
+    <row r="39" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>191889</v>
       </c>
@@ -2175,7 +4569,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
+    <row r="40" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>197747</v>
       </c>
@@ -2186,7 +4580,7 @@
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
+    <row r="41" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4">
         <v>224251</v>
       </c>
@@ -2197,7 +4591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
+    <row r="42" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>234875</v>
       </c>
@@ -2208,7 +4602,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
+    <row r="43" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>220562</v>
       </c>
@@ -2219,7 +4613,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
+    <row r="44" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>233234</v>
       </c>
@@ -2230,7 +4624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
+    <row r="45" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>244754</v>
       </c>
@@ -2241,7 +4635,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
+    <row r="46" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>260396</v>
       </c>
@@ -2252,7 +4646,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
+    <row r="47" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>258860</v>
       </c>
@@ -2263,7 +4657,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
+    <row r="48" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>244757</v>
       </c>
@@ -2274,7 +4668,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
+    <row r="49" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>177606</v>
       </c>
@@ -2285,7 +4679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
+    <row r="50" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>257561</v>
       </c>
@@ -2296,7 +4690,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
+    <row r="51" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>190916</v>
       </c>
@@ -2307,7 +4701,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
+    <row r="52" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4">
         <v>190884</v>
       </c>
@@ -2318,7 +4712,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
+    <row r="53" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4">
         <v>244758</v>
       </c>
@@ -2329,7 +4723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
+    <row r="54" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4">
         <v>286024</v>
       </c>
@@ -2340,7 +4734,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
+    <row r="55" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>221243</v>
       </c>
@@ -2351,7 +4745,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
+    <row r="56" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>188286</v>
       </c>
@@ -2362,7 +4756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
+    <row r="57" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>275057</v>
       </c>
@@ -2373,7 +4767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
+    <row r="58" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>188286</v>
       </c>
@@ -2384,7 +4778,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
+    <row r="59" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>279942</v>
       </c>
@@ -2395,7 +4789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
+    <row r="60" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>190923</v>
       </c>
@@ -2406,7 +4800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
+    <row r="61" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>216964</v>
       </c>
@@ -2417,7 +4811,7 @@
         <v>73</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
+    <row r="62" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>257328</v>
       </c>
@@ -2428,7 +4822,7 @@
         <v>75</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
+    <row r="63" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>234877</v>
       </c>
@@ -2439,7 +4833,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
+    <row r="64" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4">
         <v>188286</v>
       </c>
@@ -2450,7 +4844,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
+    <row r="65" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4">
         <v>196428</v>
       </c>
@@ -2461,7 +4855,7 @@
         <v>78</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
+    <row r="66" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>270819</v>
       </c>
@@ -2472,7 +4866,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
+    <row r="67" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>188286</v>
       </c>
@@ -2483,7 +4877,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
+    <row r="68" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>246691</v>
       </c>
@@ -2494,7 +4888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
+    <row r="69" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>286025</v>
       </c>
@@ -2505,7 +4899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
+    <row r="70" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>168857</v>
       </c>
@@ -2516,7 +4910,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
+    <row r="71" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>233946</v>
       </c>
@@ -2527,7 +4921,7 @@
         <v>29</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
+    <row r="72" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4">
         <v>229622</v>
       </c>
@@ -2538,7 +4932,7 @@
         <v>46</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
+    <row r="73" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>179599</v>
       </c>
@@ -2549,7 +4943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
+    <row r="74" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>285831</v>
       </c>
@@ -2560,7 +4954,7 @@
         <v>88</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
+    <row r="75" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>89</v>
       </c>
@@ -2571,7 +4965,7 @@
         <v>91</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
+    <row r="76" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>92</v>
       </c>
